--- a/prizmer/static/excel/electric_template_for_load.xlsx
+++ b/prizmer/static/excel/electric_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t xml:space="preserve">3* Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ-3 Ввод3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕ301</t>
   </si>
   <si>
     <t xml:space="preserve">4* При прогрузке приборов, которые будут опрашиваться через UM-RTU1 в колонке F необходимо ввести id в рамках УМ</t>
@@ -341,7 +347,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -368,10 +374,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -418,20 +420,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -574,25 +564,25 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M11" activeCellId="0" sqref="M11"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.85"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -639,357 +629,357 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="true" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12" t="n">
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="n">
         <v>28376066</v>
       </c>
-      <c r="H2" s="12" t="n">
+      <c r="H2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13" t="n">
+      <c r="J2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="13" t="n">
         <v>4003</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-    </row>
-    <row r="3" s="7" customFormat="true" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12" t="n">
+      <c r="E3" s="9"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11" t="n">
         <v>38136243</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="13" t="n">
         <v>4003</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-    </row>
-    <row r="4" s="7" customFormat="true" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12" t="n">
+      <c r="E4" s="16"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="11" t="n">
         <v>29936803</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="9" t="n">
         <v>13</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18" t="n">
+      <c r="J4" s="17" t="n">
         <v>80</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="L4" s="13" t="n">
         <v>5004</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="16" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="16" t="s">
+      <c r="O4" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="true" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="5" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="12" t="n">
+      <c r="E5" s="10"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="11" t="n">
         <v>29936836</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="9" t="n">
         <v>14</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="18" t="n">
+      <c r="J5" s="17" t="n">
         <v>80</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="14" t="n">
+      <c r="L5" s="13" t="n">
         <v>5004</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="16" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="true" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+    <row r="6" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12" t="n">
+      <c r="E6" s="10"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11" t="n">
         <v>29937023</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="9" t="n">
         <v>15</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="14" t="n">
+      <c r="L6" s="13" t="n">
         <v>5004</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="16" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="O6" s="15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="true" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+    <row r="7" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12" t="n">
+      <c r="E7" s="10"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="n">
         <v>31571813</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="9" t="n">
         <v>16</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="14" t="n">
+      <c r="L7" s="13" t="n">
         <v>5004</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="16" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23" t="n">
+      <c r="E8" s="14"/>
+      <c r="F8" s="19" t="n">
         <v>701</v>
       </c>
-      <c r="G8" s="24" t="n">
+      <c r="G8" s="20" t="n">
         <v>32375394</v>
       </c>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="21" t="n">
+      <c r="J8" s="18" t="n">
         <v>80</v>
       </c>
-      <c r="K8" s="26" t="s">
+      <c r="K8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="27" t="n">
+      <c r="L8" s="23" t="n">
         <v>4002</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="Q8" s="28" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="Q8" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="28"/>
-      <c r="U8" s="28"/>
-      <c r="V8" s="28"/>
-      <c r="W8" s="28"/>
-      <c r="X8" s="28"/>
-      <c r="Y8" s="28"/>
-      <c r="Z8" s="28"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
     </row>
     <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23" t="n">
+      <c r="E9" s="14"/>
+      <c r="F9" s="19" t="n">
         <v>702</v>
       </c>
-      <c r="G9" s="24" t="n">
+      <c r="G9" s="20" t="n">
         <v>32952201</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="21" t="n">
+      <c r="J9" s="18" t="n">
         <v>80</v>
       </c>
-      <c r="K9" s="26" t="s">
+      <c r="K9" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="27" t="n">
+      <c r="L9" s="23" t="n">
         <v>4002</v>
       </c>
-      <c r="M9" s="22"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="Q9" s="28" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="Q9" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
     </row>
     <row r="10" customFormat="false" ht="26.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="18" t="s">
         <v>42</v>
       </c>
       <c r="G10" s="0" t="n">
@@ -998,58 +988,88 @@
       <c r="H10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="I10" s="25" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="26" t="s">
+      <c r="K10" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="27" t="n">
+      <c r="L10" s="23" t="n">
         <v>4002</v>
       </c>
-      <c r="Q10" s="28" t="s">
+      <c r="Q10" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="28"/>
-      <c r="U10" s="28"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" s="24"/>
     </row>
     <row r="11" customFormat="false" ht="24.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q11" s="28" t="s">
+      <c r="A11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="28"/>
-      <c r="X11" s="28"/>
-      <c r="Y11" s="28"/>
-      <c r="Z11" s="28"/>
+      <c r="G11" s="25" t="n">
+        <v>127205047</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>127205047</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="23" t="n">
+        <v>4002</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" s="24"/>
     </row>
     <row r="12" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q12" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
-      <c r="Y12" s="28"/>
-      <c r="Z12" s="28"/>
+      <c r="Q12" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1065,7 +1085,7 @@
   <conditionalFormatting sqref="G8:G9">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D10">
+  <conditionalFormatting sqref="D8:D11">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/prizmer/static/excel/electric_template_for_load.xlsx
+++ b/prizmer/static/excel/electric_template_for_load.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Electr_k1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Electr_k1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -186,6 +186,12 @@
   </si>
   <si>
     <t xml:space="preserve">4* При прогрузке приборов, которые будут опрашиваться через UM-RTU1 в колонке F необходимо ввести id в рамках УМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ АВР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нартис СПОДЭС</t>
   </si>
   <si>
     <t xml:space="preserve">5* Если необходимо чтение из прибора реактивной энергии R+ и/или Получасовых профилей мощности A+ и R+ (обязательно для отчёта по форме 80020), то поставьте в соответсвующей колонке "+". Если чтение этих параметров не нужно (НЕ рекомендуется для квартир), то оставьте это поле пустым или напишите "-"</t>
@@ -347,11 +353,15 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,15 +374,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,31 +394,31 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -416,39 +426,39 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -556,520 +566,662 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="6.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="n">
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12" t="n">
         <v>28376066</v>
       </c>
-      <c r="H2" s="11" t="n">
+      <c r="H2" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="12" t="n">
+      <c r="J2" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="13" t="n">
+      <c r="L2" s="14" t="n">
         <v>4003</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
     </row>
     <row r="3" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11" t="n">
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12" t="n">
         <v>38136243</v>
       </c>
-      <c r="H3" s="11" t="n">
+      <c r="H3" s="12" t="n">
         <v>2</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="12" t="n">
+      <c r="J3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="12" t="s">
+      <c r="K3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="13" t="n">
+      <c r="L3" s="14" t="n">
         <v>4003</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11" t="n">
+      <c r="E4" s="17"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="12" t="n">
         <v>29936803</v>
       </c>
-      <c r="H4" s="9" t="n">
+      <c r="H4" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="17" t="n">
+      <c r="J4" s="18" t="n">
         <v>80</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="13" t="n">
+      <c r="L4" s="14" t="n">
         <v>5004</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11" t="n">
+      <c r="E5" s="11"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="12" t="n">
         <v>29936836</v>
       </c>
-      <c r="H5" s="9" t="n">
+      <c r="H5" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="17" t="n">
+      <c r="J5" s="18" t="n">
         <v>80</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="13" t="n">
+      <c r="L5" s="14" t="n">
         <v>5004</v>
       </c>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="11" t="n">
+      <c r="E6" s="11"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="12" t="n">
         <v>29937023</v>
       </c>
-      <c r="H6" s="9" t="n">
+      <c r="H6" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="10" t="n">
+      <c r="J6" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="13" t="n">
+      <c r="L6" s="14" t="n">
         <v>5004</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="11" t="n">
+      <c r="E7" s="11"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="12" t="n">
         <v>31571813</v>
       </c>
-      <c r="H7" s="9" t="n">
+      <c r="H7" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="10" t="n">
+      <c r="J7" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="13" t="n">
+      <c r="L7" s="14" t="n">
         <v>5004</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="15" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="O7" s="16" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="19" t="n">
+      <c r="E8" s="15"/>
+      <c r="F8" s="20" t="n">
         <v>701</v>
       </c>
-      <c r="G8" s="20" t="n">
+      <c r="G8" s="21" t="n">
         <v>32375394</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="21" t="s">
+      <c r="I8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="18" t="n">
+      <c r="J8" s="19" t="n">
         <v>80</v>
       </c>
-      <c r="K8" s="22" t="s">
+      <c r="K8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="23" t="n">
+      <c r="L8" s="24" t="n">
         <v>4002</v>
       </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="Q8" s="24" t="s">
+      <c r="M8" s="15"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="Q8" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="24"/>
-      <c r="Z8" s="24"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="25"/>
+      <c r="T8" s="25"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="19" t="n">
+      <c r="E9" s="15"/>
+      <c r="F9" s="20" t="n">
         <v>702</v>
       </c>
-      <c r="G9" s="20" t="n">
+      <c r="G9" s="21" t="n">
         <v>32952201</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="18" t="n">
+      <c r="J9" s="19" t="n">
         <v>80</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="K9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="23" t="n">
+      <c r="L9" s="24" t="n">
         <v>4002</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="Q9" s="24" t="s">
+      <c r="M9" s="15"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="Q9" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="26.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="G10" s="1" t="n">
         <v>7520107</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K10" s="22" t="s">
+      <c r="K10" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="23" t="n">
+      <c r="L10" s="24" t="n">
         <v>4002</v>
       </c>
-      <c r="Q10" s="24" t="s">
+      <c r="Q10" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="24"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="24"/>
-      <c r="Y10" s="24"/>
-      <c r="Z10" s="24"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="24.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="25" t="n">
+      <c r="G11" s="26" t="n">
         <v>127205047</v>
       </c>
-      <c r="H11" s="25" t="n">
+      <c r="H11" s="26" t="n">
         <v>127205047</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K11" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="23" t="n">
+      <c r="L11" s="24" t="n">
         <v>4002</v>
       </c>
-      <c r="Q11" s="24" t="s">
+      <c r="Q11" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="24"/>
-      <c r="W11" s="24"/>
-      <c r="X11" s="24"/>
-      <c r="Y11" s="24"/>
-      <c r="Z11" s="24"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="25"/>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="X11" s="25"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="Q12" s="24" t="s">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="R12" s="24"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="24"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="24"/>
-      <c r="Z12" s="24"/>
+      <c r="G12" s="26" t="n">
+        <v>127205047</v>
+      </c>
+      <c r="H12" s="26" t="n">
+        <v>19</v>
+      </c>
+      <c r="I12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="24" t="n">
+        <v>4002</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" s="25"/>
+      <c r="S12" s="25"/>
+      <c r="T12" s="25"/>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1081,16 +1233,14 @@
   </mergeCells>
   <conditionalFormatting sqref="G8:G9">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
     <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D11">
+  <conditionalFormatting sqref="D8:D12">
     <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/prizmer/static/excel/electric_template_for_load.xlsx
+++ b/prizmer/static/excel/electric_template_for_load.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web-prizmer\wui3\prizmer\static\cfg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8789242-B1A1-412F-9C8E-2F580FC50D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Electr_k1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Electr_k1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,126 +25,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
-  <si>
-    <t xml:space="preserve">Населенный пункт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование улицы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Наименование дома</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Квартира</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Идентификатор АСКУЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер лицевого счета</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Номер счётчика заводской</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
+  <si>
+    <t>Населенный пункт</t>
+  </si>
+  <si>
+    <t>Наименование улицы</t>
+  </si>
+  <si>
+    <t>Наименование дома</t>
+  </si>
+  <si>
+    <t>Квартира</t>
+  </si>
+  <si>
+    <t>Идентификатор АСКУЭ</t>
+  </si>
+  <si>
+    <t>Номер лицевого счета</t>
+  </si>
+  <si>
+    <t>Номер счётчика заводской</t>
   </si>
   <si>
     <t xml:space="preserve">Номер в сети </t>
   </si>
   <si>
-    <t xml:space="preserve">Тип счётчика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip adress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ip port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Группа</t>
+    <t>Тип счётчика</t>
+  </si>
+  <si>
+    <t>ТТ</t>
+  </si>
+  <si>
+    <t>ip adress</t>
+  </si>
+  <si>
+    <t>ip port</t>
+  </si>
+  <si>
+    <t>Группа</t>
   </si>
   <si>
     <t xml:space="preserve"> Чтение реакт. энергии T0 R+</t>
   </si>
   <si>
-    <t xml:space="preserve">Чтение получас. профилей мощности A+ и R+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">г.Москва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЖК "Московский"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корпус 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Квартира 0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">М-230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.40.40.52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Квартира 0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">М-200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ Корпус 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ 3.1 -1.1 Ввод 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.40.40.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">+</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Корпус 1 ВРУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ 3.1 -1.1 Ввод 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ 3.1 -1.1 АВР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ 3.1 -1.1 ОДН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ Корпус 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ-1 Ввод1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">М-230-УМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.15.10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">* Счётчики Меркурий-234 записываются как Меркурий 230, т.е. М-230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ-1 Ввод2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
+    <t>Чтение получас. профилей мощности A+ и R+</t>
+  </si>
+  <si>
+    <t>г.Москва</t>
+  </si>
+  <si>
+    <t>ЖК "Московский"</t>
+  </si>
+  <si>
+    <t>Корпус 1</t>
+  </si>
+  <si>
+    <t>Квартира 0001</t>
+  </si>
+  <si>
+    <t>М-230</t>
+  </si>
+  <si>
+    <t>172.40.40.52</t>
+  </si>
+  <si>
+    <t>Квартира 0002</t>
+  </si>
+  <si>
+    <t>М-200</t>
+  </si>
+  <si>
+    <t>ВРУ Корпус 1</t>
+  </si>
+  <si>
+    <t>ВРУ 3.1 -1.1 Ввод 1</t>
+  </si>
+  <si>
+    <t>172.40.40.32</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Корпус 1 ВРУ</t>
+  </si>
+  <si>
+    <t>ВРУ 3.1 -1.1 Ввод 2</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ВРУ 3.1 -1.1 АВР</t>
+  </si>
+  <si>
+    <t>ВРУ 3.1 -1.1 ОДН</t>
+  </si>
+  <si>
+    <t>ВРУ Корпус 2</t>
+  </si>
+  <si>
+    <t>ВРУ-1 Ввод1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>М-230-УМ</t>
+  </si>
+  <si>
+    <t>192.168.15.10</t>
+  </si>
+  <si>
+    <t>* Счётчики Меркурий-234 записываются как Меркурий 230, т.е. М-230</t>
+  </si>
+  <si>
+    <t>ВРУ-1 Ввод2</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <r>
@@ -153,88 +158,69 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve">50</t>
+      <t>50</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ВРУ Корпус 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ-3 Ввод1</t>
+    <t>ВРУ Корпус 3</t>
+  </si>
+  <si>
+    <t>ВРУ-3 Ввод1</t>
   </si>
   <si>
     <t xml:space="preserve">Пульсар 3Ф4Т </t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.15.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3* Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ-3 Ввод3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СЕ301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4* При прогрузке приборов, которые будут опрашиваться через UM-RTU1 в колонке F необходимо ввести id в рамках УМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ВРУ АВР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нартис СПОДЭС</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5* Если необходимо чтение из прибора реактивной энергии R+ и/или Получасовых профилей мощности A+ и R+ (обязательно для отчёта по форме 80020), то поставьте в соответсвующей колонке "+". Если чтение этих параметров не нужно (НЕ рекомендуется для квартир), то оставьте это поле пустым или напишите "-"</t>
+    <t>192.168.15.11</t>
+  </si>
+  <si>
+    <t>3* Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
+  </si>
+  <si>
+    <t>ВРУ-3 Ввод3</t>
+  </si>
+  <si>
+    <t>СЕ301</t>
+  </si>
+  <si>
+    <t>4* При прогрузке приборов, которые будут опрашиваться через UM-RTU1 в колонке F необходимо ввести id в рамках УМ</t>
+  </si>
+  <si>
+    <t>Нартис СПОДЭС</t>
+  </si>
+  <si>
+    <t>5* Если необходимо чтение из прибора реактивной энергии R+ и/или Получасовых профилей мощности A+ и R+ (обязательно для отчёта по форме 80020), то поставьте в соответсвующей колонке "+". Если чтение этих параметров не нужно (НЕ рекомендуется для квартир), то оставьте это поле пустым или напишите "-"</t>
+  </si>
+  <si>
+    <t>Корпус 3</t>
+  </si>
+  <si>
+    <t>Квартира 0003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="000"/>
-    <numFmt numFmtId="167" formatCode="[$-419]General"/>
-    <numFmt numFmtId="168" formatCode="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="[$-419]General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -242,7 +228,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -270,10 +256,17 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -299,179 +292,175 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -503,6 +492,7 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -561,62 +551,78 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18a303"/>
+        <a:srgbClr val="18A303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369a3"/>
+        <a:srgbClr val="0369A3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a33e03"/>
+        <a:srgbClr val="A33E03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8e03a3"/>
+        <a:srgbClr val="8E03A3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="c99c00"/>
+        <a:srgbClr val="C99C00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="c9211e"/>
+        <a:srgbClr val="C9211E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ee"/>
+        <a:srgbClr val="0000EE"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551a8b"/>
+        <a:srgbClr val="551A8B"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
-        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="DejaVu Sans"/>
+        <a:cs typeface="DejaVu Sans"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -669,36 +675,35 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:Z12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.45" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.85"/>
+    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="72.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:26" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -745,7 +750,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -760,29 +765,29 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="12" t="n">
+      <c r="G2" s="12">
         <v>28376066</v>
       </c>
-      <c r="H2" s="12" t="n">
+      <c r="H2" s="12">
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13" t="n">
+      <c r="J2" s="13">
         <v>1</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="14" t="n">
+      <c r="L2" s="14">
         <v>4003</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -797,29 +802,29 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="12" t="n">
+      <c r="G3" s="12">
         <v>38136243</v>
       </c>
-      <c r="H3" s="12" t="n">
+      <c r="H3" s="12">
         <v>2</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="13" t="n">
+      <c r="J3" s="13">
         <v>1</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="14" t="n">
+      <c r="L3" s="14">
         <v>4003</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -834,22 +839,22 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="12" t="n">
+      <c r="G4" s="12">
         <v>29936803</v>
       </c>
-      <c r="H4" s="10" t="n">
+      <c r="H4" s="10">
         <v>13</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18" t="n">
+      <c r="J4" s="18">
         <v>80</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="14" t="n">
+      <c r="L4" s="14">
         <v>5004</v>
       </c>
       <c r="M4" s="15"/>
@@ -860,7 +865,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -875,22 +880,22 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="12" t="n">
+      <c r="G5" s="12">
         <v>29936836</v>
       </c>
-      <c r="H5" s="10" t="n">
+      <c r="H5" s="10">
         <v>14</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="18" t="n">
+      <c r="J5" s="18">
         <v>80</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="14" t="n">
+      <c r="L5" s="14">
         <v>5004</v>
       </c>
       <c r="M5" s="15"/>
@@ -901,7 +906,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -916,22 +921,22 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="12" t="n">
+      <c r="G6" s="12">
         <v>29937023</v>
       </c>
-      <c r="H6" s="10" t="n">
+      <c r="H6" s="10">
         <v>15</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="11" t="n">
+      <c r="J6" s="11">
         <v>30</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="14" t="n">
+      <c r="L6" s="14">
         <v>5004</v>
       </c>
       <c r="M6" s="15"/>
@@ -942,7 +947,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -957,22 +962,22 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="12" t="n">
+      <c r="G7" s="12">
         <v>31571813</v>
       </c>
-      <c r="H7" s="10" t="n">
+      <c r="H7" s="10">
         <v>16</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="11" t="n">
+      <c r="J7" s="11">
         <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="14" t="n">
+      <c r="L7" s="14">
         <v>5004</v>
       </c>
       <c r="M7" s="15"/>
@@ -983,7 +988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -993,14 +998,14 @@
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="25" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="20" t="n">
+      <c r="F8" s="20">
         <v>701</v>
       </c>
-      <c r="G8" s="21" t="n">
+      <c r="G8" s="21">
         <v>32375394</v>
       </c>
       <c r="H8" s="20" t="s">
@@ -1009,32 +1014,32 @@
       <c r="I8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="19" t="n">
+      <c r="J8" s="19">
         <v>80</v>
       </c>
       <c r="K8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="24" t="n">
+      <c r="L8" s="24">
         <v>4002</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
-      <c r="Q8" s="25" t="s">
+      <c r="Q8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="25"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
     </row>
-    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:26" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1044,14 +1049,14 @@
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="25" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="20" t="n">
+      <c r="F9" s="20">
         <v>702</v>
       </c>
-      <c r="G9" s="21" t="n">
+      <c r="G9" s="21">
         <v>32952201</v>
       </c>
       <c r="H9" s="20" t="s">
@@ -1060,168 +1065,184 @@
       <c r="I9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="19" t="n">
+      <c r="J9" s="19">
         <v>80</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="24" t="n">
+      <c r="L9" s="24">
         <v>4002</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
-      <c r="Q9" s="25" t="s">
+      <c r="Q9" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="25"/>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="25"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="25"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
     </row>
-    <row r="10" customFormat="false" ht="26.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15">
         <v>7520107</v>
       </c>
-      <c r="H10" s="1" t="n">
+      <c r="H10" s="15">
         <v>1</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="1" t="n">
+      <c r="J10" s="15">
         <v>1</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="24" t="n">
+      <c r="L10" s="15">
         <v>4002</v>
       </c>
-      <c r="Q10" s="25" t="s">
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="Q10" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="25"/>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="25"/>
-      <c r="Y10" s="25"/>
-      <c r="Z10" s="25"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
     </row>
-    <row r="11" customFormat="false" ht="24.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="26" t="n">
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15">
         <v>127205047</v>
       </c>
-      <c r="H11" s="26" t="n">
+      <c r="H11" s="15">
         <v>127205047</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="15">
         <v>1</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="24" t="n">
+      <c r="L11" s="15">
         <v>4002</v>
       </c>
-      <c r="Q11" s="25" t="s">
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="Q11" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="27"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="27"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
     </row>
-    <row r="12" customFormat="false" ht="38.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:26" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="19" t="s">
+      <c r="C12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
+        <v>451272050</v>
+      </c>
+      <c r="H12" s="15">
+        <v>19</v>
+      </c>
+      <c r="I12" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="26" t="n">
-        <v>127205047</v>
-      </c>
-      <c r="H12" s="26" t="n">
-        <v>19</v>
-      </c>
-      <c r="I12" s="26" t="s">
+      <c r="J12" s="15">
+        <v>1</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="15">
+        <v>4002</v>
+      </c>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q12" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="24" t="n">
-        <v>4002</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25"/>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="25"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="25"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="27"/>
+      <c r="T12" s="27"/>
+      <c r="U12" s="27"/>
+      <c r="V12" s="27"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="D13" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1231,19 +1252,17 @@
     <mergeCell ref="Q11:Z11"/>
     <mergeCell ref="Q12:Z12"/>
   </mergeCells>
+  <conditionalFormatting sqref="D8:D9">
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G8:G9">
-    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
-    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D8:D12">
-    <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prizmer/static/excel/electric_template_for_load.xlsx
+++ b/prizmer/static/excel/electric_template_for_load.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web-prizmer\wui3\prizmer\static\cfg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8789242-B1A1-412F-9C8E-2F580FC50D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Electr_k1" sheetId="1" r:id="rId1"/>
+    <sheet name="Electr_k1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,126 +20,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="53">
-  <si>
-    <t>Населенный пункт</t>
-  </si>
-  <si>
-    <t>Наименование улицы</t>
-  </si>
-  <si>
-    <t>Наименование дома</t>
-  </si>
-  <si>
-    <t>Квартира</t>
-  </si>
-  <si>
-    <t>Идентификатор АСКУЭ</t>
-  </si>
-  <si>
-    <t>Номер лицевого счета</t>
-  </si>
-  <si>
-    <t>Номер счётчика заводской</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+  <si>
+    <t xml:space="preserve">Населенный пункт</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование улицы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование дома</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Идентификатор АСКУЭ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер лицевого счета</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номер счётчика заводской</t>
   </si>
   <si>
     <t xml:space="preserve">Номер в сети </t>
   </si>
   <si>
-    <t>Тип счётчика</t>
-  </si>
-  <si>
-    <t>ТТ</t>
-  </si>
-  <si>
-    <t>ip adress</t>
-  </si>
-  <si>
-    <t>ip port</t>
-  </si>
-  <si>
-    <t>Группа</t>
+    <t xml:space="preserve">Тип счётчика</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ТТ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip adress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ip port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа</t>
   </si>
   <si>
     <t xml:space="preserve"> Чтение реакт. энергии T0 R+</t>
   </si>
   <si>
-    <t>Чтение получас. профилей мощности A+ и R+</t>
-  </si>
-  <si>
-    <t>г.Москва</t>
-  </si>
-  <si>
-    <t>ЖК "Московский"</t>
-  </si>
-  <si>
-    <t>Корпус 1</t>
-  </si>
-  <si>
-    <t>Квартира 0001</t>
-  </si>
-  <si>
-    <t>М-230</t>
-  </si>
-  <si>
-    <t>172.40.40.52</t>
-  </si>
-  <si>
-    <t>Квартира 0002</t>
-  </si>
-  <si>
-    <t>М-200</t>
-  </si>
-  <si>
-    <t>ВРУ Корпус 1</t>
-  </si>
-  <si>
-    <t>ВРУ 3.1 -1.1 Ввод 1</t>
-  </si>
-  <si>
-    <t>172.40.40.32</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>Корпус 1 ВРУ</t>
-  </si>
-  <si>
-    <t>ВРУ 3.1 -1.1 Ввод 2</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ВРУ 3.1 -1.1 АВР</t>
-  </si>
-  <si>
-    <t>ВРУ 3.1 -1.1 ОДН</t>
-  </si>
-  <si>
-    <t>ВРУ Корпус 2</t>
-  </si>
-  <si>
-    <t>ВРУ-1 Ввод1</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>М-230-УМ</t>
-  </si>
-  <si>
-    <t>192.168.15.10</t>
-  </si>
-  <si>
-    <t>* Счётчики Меркурий-234 записываются как Меркурий 230, т.е. М-230</t>
-  </si>
-  <si>
-    <t>ВРУ-1 Ввод2</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t xml:space="preserve">Чтение получас. профилей мощности A+ и R+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г.Москва</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЖК "Московский"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М-230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.40.40.52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М-200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ Корпус 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ 3.1 -1.1 Ввод 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.40.40.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 1 ВРУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ 3.1 -1.1 Ввод 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ 3.1 -1.1 АВР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ 3.1 -1.1 ОДН</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ Корпус 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ-1 Ввод1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">М-230-УМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.15.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Счётчики Меркурий-234 записываются как Меркурий 230, т.е. М-230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ-1 Ввод2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <r>
@@ -158,69 +153,100 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="12"/>
         <color rgb="FF00B050"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="204"/>
       </rPr>
-      <t>50</t>
+      <t xml:space="preserve">50</t>
     </r>
   </si>
   <si>
-    <t>ВРУ Корпус 3</t>
-  </si>
-  <si>
-    <t>ВРУ-3 Ввод1</t>
+    <t xml:space="preserve">ВРУ Корпус 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ-3 Ввод1</t>
   </si>
   <si>
     <t xml:space="preserve">Пульсар 3Ф4Т </t>
   </si>
   <si>
-    <t>192.168.15.11</t>
-  </si>
-  <si>
-    <t>3* Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
-  </si>
-  <si>
-    <t>ВРУ-3 Ввод3</t>
-  </si>
-  <si>
-    <t>СЕ301</t>
-  </si>
-  <si>
-    <t>4* При прогрузке приборов, которые будут опрашиваться через UM-RTU1 в колонке F необходимо ввести id в рамках УМ</t>
-  </si>
-  <si>
-    <t>Нартис СПОДЭС</t>
-  </si>
-  <si>
-    <t>5* Если необходимо чтение из прибора реактивной энергии R+ и/или Получасовых профилей мощности A+ и R+ (обязательно для отчёта по форме 80020), то поставьте в соответсвующей колонке "+". Если чтение этих параметров не нужно (НЕ рекомендуется для квартир), то оставьте это поле пустым или напишите "-"</t>
-  </si>
-  <si>
-    <t>Корпус 3</t>
-  </si>
-  <si>
-    <t>Квартира 0003</t>
+    <t xml:space="preserve">192.168.15.11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3* Нумерация квартир должна содержать нули, чтобы все числа имели одинаковый формат, иначе будут проблемы с сортировкой, лишние пробелы в наименовании так же могут сбить сортировку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ВРУ-3 Ввод3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СЕ301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4* При прогрузке приборов, которые будут опрашиваться через UM-RTU1 в колонке F необходимо ввести id в рамках УМ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Нартис СПОДЭС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5* Если необходимо чтение из прибора реактивной энергии R+ и/или Получасовых профилей мощности A+ и R+ (обязательно для отчёта по форме 80020), то поставьте в соответсвующей колонке "+". Если чтение этих параметров не нужно (НЕ рекомендуется для квартир), то оставьте это поле пустым или напишите "-"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE308 СПОДЭС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000"/>
-    <numFmt numFmtId="165" formatCode="[$-419]General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00"/>
+    <numFmt numFmtId="166" formatCode="000"/>
+    <numFmt numFmtId="167" formatCode="[$-419]General"/>
+    <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="0"/>
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -228,7 +254,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -249,6 +275,13 @@
       <charset val="204"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -256,17 +289,10 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
@@ -292,175 +318,179 @@
     </fill>
   </fills>
   <borders count="4">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment wrapText="1"/>
-    </xf>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+  <cellXfs count="27">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -492,7 +522,6 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -551,78 +580,62 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="LibreOffice">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="18A303"/>
+        <a:srgbClr val="18a303"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="0369A3"/>
+        <a:srgbClr val="0369a3"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A33E03"/>
+        <a:srgbClr val="a33e03"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8E03A3"/>
+        <a:srgbClr val="8e03a3"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="C99C00"/>
+        <a:srgbClr val="c99c00"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="C9211E"/>
+        <a:srgbClr val="c9211e"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000EE"/>
+        <a:srgbClr val="0000ee"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="551A8B"/>
+        <a:srgbClr val="551a8b"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="DejaVu Sans"/>
-        <a:cs typeface="DejaVu Sans"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -675,35 +688,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12.75" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="9.86"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
         <v>15</v>
       </c>
@@ -765,29 +779,29 @@
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
-      <c r="G2" s="12">
+      <c r="G2" s="12" t="n">
         <v>28376066</v>
       </c>
-      <c r="H2" s="12">
+      <c r="H2" s="12" t="n">
         <v>1</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="13" t="n">
         <v>1</v>
       </c>
       <c r="K2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="14" t="n">
         <v>4003</v>
       </c>
       <c r="M2" s="15"/>
       <c r="N2" s="16"/>
       <c r="O2" s="16"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>15</v>
       </c>
@@ -802,29 +816,29 @@
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="12">
+      <c r="G3" s="12" t="n">
         <v>38136243</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="12" t="n">
         <v>2</v>
       </c>
       <c r="I3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="13" t="n">
         <v>1</v>
       </c>
       <c r="K3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="14" t="n">
         <v>4003</v>
       </c>
       <c r="M3" s="15"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
@@ -839,22 +853,22 @@
       </c>
       <c r="E4" s="17"/>
       <c r="F4" s="13"/>
-      <c r="G4" s="12">
+      <c r="G4" s="12" t="n">
         <v>29936803</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="10" t="n">
         <v>13</v>
       </c>
       <c r="I4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="18">
+      <c r="J4" s="18" t="n">
         <v>80</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="14" t="n">
         <v>5004</v>
       </c>
       <c r="M4" s="15"/>
@@ -865,7 +879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -880,22 +894,22 @@
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="13"/>
-      <c r="G5" s="12">
+      <c r="G5" s="12" t="n">
         <v>29936836</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="10" t="n">
         <v>14</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="18" t="n">
         <v>80</v>
       </c>
       <c r="K5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="14">
+      <c r="L5" s="14" t="n">
         <v>5004</v>
       </c>
       <c r="M5" s="15"/>
@@ -906,7 +920,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -921,22 +935,22 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="13"/>
-      <c r="G6" s="12">
+      <c r="G6" s="12" t="n">
         <v>29937023</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="10" t="n">
         <v>15</v>
       </c>
       <c r="I6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="11" t="n">
         <v>30</v>
       </c>
       <c r="K6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="14" t="n">
         <v>5004</v>
       </c>
       <c r="M6" s="15"/>
@@ -947,7 +961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -962,22 +976,22 @@
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="13"/>
-      <c r="G7" s="12">
+      <c r="G7" s="12" t="n">
         <v>31571813</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="10" t="n">
         <v>16</v>
       </c>
       <c r="I7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="11" t="n">
         <v>1</v>
       </c>
       <c r="K7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="14" t="n">
         <v>5004</v>
       </c>
       <c r="M7" s="15"/>
@@ -988,7 +1002,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="8" t="s">
         <v>15</v>
       </c>
@@ -998,14 +1012,14 @@
       <c r="C8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="19" t="s">
         <v>33</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="20">
+      <c r="F8" s="20" t="n">
         <v>701</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="21" t="n">
         <v>32375394</v>
       </c>
       <c r="H8" s="20" t="s">
@@ -1014,32 +1028,32 @@
       <c r="I8" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="23" t="n">
         <v>80</v>
       </c>
-      <c r="K8" s="23" t="s">
+      <c r="K8" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="25" t="n">
         <v>4002</v>
       </c>
       <c r="M8" s="15"/>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
-      <c r="Q8" s="27" t="s">
+      <c r="Q8" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27"/>
-      <c r="V8" s="27"/>
-      <c r="W8" s="27"/>
-      <c r="X8" s="27"/>
-      <c r="Y8" s="27"/>
-      <c r="Z8" s="27"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="26"/>
     </row>
-    <row r="9" spans="1:26" ht="25.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1049,14 +1063,14 @@
       <c r="C9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="19" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="15"/>
-      <c r="F9" s="20">
+      <c r="F9" s="20" t="n">
         <v>702</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="21" t="n">
         <v>32952201</v>
       </c>
       <c r="H9" s="20" t="s">
@@ -1065,32 +1079,32 @@
       <c r="I9" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J9" s="23" t="n">
         <v>80</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="25" t="n">
         <v>4002</v>
       </c>
       <c r="M9" s="15"/>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
-      <c r="Q9" s="27" t="s">
+      <c r="Q9" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="27"/>
-      <c r="Y9" s="27"/>
-      <c r="Z9" s="27"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="26"/>
     </row>
-    <row r="10" spans="1:26" ht="26.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="15" t="s">
         <v>15</v>
       </c>
@@ -1105,41 +1119,41 @@
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15"/>
-      <c r="G10" s="15">
+      <c r="G10" s="15" t="n">
         <v>7520107</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="15" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="15" t="n">
         <v>1</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="15" t="n">
         <v>4002</v>
       </c>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
-      <c r="Q10" s="27" t="s">
+      <c r="Q10" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="26"/>
     </row>
-    <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
@@ -1154,41 +1168,41 @@
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="15">
+      <c r="G11" s="15" t="n">
         <v>127205047</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="15" t="n">
         <v>127205047</v>
       </c>
       <c r="I11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="15" t="n">
         <v>1</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="15" t="n">
         <v>4002</v>
       </c>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
       <c r="O11" s="15"/>
-      <c r="Q11" s="27" t="s">
+      <c r="Q11" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="27"/>
-      <c r="X11" s="27"/>
-      <c r="Y11" s="27"/>
-      <c r="Z11" s="27"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="26"/>
     </row>
-    <row r="12" spans="1:26" ht="38.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
@@ -1196,29 +1210,29 @@
         <v>16</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15"/>
-      <c r="G12" s="15">
+      <c r="G12" s="15" t="n">
         <v>451272050</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="15" t="n">
         <v>19</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="15">
+        <v>51</v>
+      </c>
+      <c r="J12" s="15" t="n">
         <v>1</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="15" t="n">
         <v>4002</v>
       </c>
       <c r="M12" s="15"/>
@@ -1228,41 +1242,90 @@
       <c r="O12" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Q12" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="27"/>
-      <c r="T12" s="27"/>
-      <c r="U12" s="27"/>
-      <c r="V12" s="27"/>
-      <c r="W12" s="27"/>
-      <c r="X12" s="27"/>
-      <c r="Y12" s="27"/>
-      <c r="Z12" s="27"/>
+      <c r="Q12" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="26"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="D13" s="26"/>
+    <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15" t="n">
+        <v>183293299</v>
+      </c>
+      <c r="H13" s="15" t="n">
+        <v>3299</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J13" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="15" t="n">
+        <v>4002</v>
+      </c>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="Q13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="Q8:Z8"/>
     <mergeCell ref="Q9:Z9"/>
     <mergeCell ref="Q10:Z10"/>
     <mergeCell ref="Q11:Z11"/>
     <mergeCell ref="Q12:Z12"/>
+    <mergeCell ref="Q13:Z13"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D9">
-    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
+  <conditionalFormatting sqref="G8:G9">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
+    <cfRule type="duplicateValues" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G8:G9">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="D8:D9 G1:G1048576">
+    <cfRule type="duplicateValues" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/prizmer/static/excel/electric_template_for_load.xlsx
+++ b/prizmer/static/excel/electric_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="59">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -208,6 +208,15 @@
   <si>
     <t xml:space="preserve">CE308 СПОДЭС</t>
   </si>
+  <si>
+    <t xml:space="preserve">Квартира 0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МИРТЕК-32-РУ-D37</t>
+  </si>
 </sst>
 </file>
 
@@ -220,7 +229,7 @@
     <numFmt numFmtId="167" formatCode="[$-419]General"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -243,6 +252,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -269,12 +284,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -292,6 +301,12 @@
       <b val="true"/>
       <sz val="12"/>
       <color rgb="FF00B050"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="204"/>
@@ -347,7 +362,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -371,8 +386,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,114 +400,127 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Comma" xfId="15" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Обычный 3" xfId="20"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -696,10 +728,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z13"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N29" activeCellId="0" sqref="N29"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71484375" defaultRowHeight="12.75" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -708,7 +740,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="20.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="6.43"/>
@@ -1122,7 +1154,7 @@
       <c r="G10" s="15" t="n">
         <v>7520107</v>
       </c>
-      <c r="H10" s="15" t="n">
+      <c r="H10" s="27" t="n">
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
@@ -1171,7 +1203,7 @@
       <c r="G11" s="15" t="n">
         <v>127205047</v>
       </c>
-      <c r="H11" s="15" t="n">
+      <c r="H11" s="27" t="n">
         <v>127205047</v>
       </c>
       <c r="I11" s="15" t="s">
@@ -1220,7 +1252,7 @@
       <c r="G12" s="15" t="n">
         <v>451272050</v>
       </c>
-      <c r="H12" s="15" t="n">
+      <c r="H12" s="27" t="n">
         <v>19</v>
       </c>
       <c r="I12" s="15" t="s">
@@ -1273,7 +1305,7 @@
       <c r="G13" s="15" t="n">
         <v>183293299</v>
       </c>
-      <c r="H13" s="15" t="n">
+      <c r="H13" s="27" t="n">
         <v>3299</v>
       </c>
       <c r="I13" s="15" t="s">
@@ -1304,14 +1336,64 @@
       <c r="Y13" s="26"/>
       <c r="Z13" s="26"/>
     </row>
+    <row r="14" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15" t="n">
+        <v>6250616600202</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="15" t="n">
+        <v>4002</v>
+      </c>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15"/>
+      <c r="Q14" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="Q8:Z8"/>
     <mergeCell ref="Q9:Z9"/>
     <mergeCell ref="Q10:Z10"/>
     <mergeCell ref="Q11:Z11"/>
     <mergeCell ref="Q12:Z12"/>
     <mergeCell ref="Q13:Z13"/>
+    <mergeCell ref="Q14:Z14"/>
   </mergeCells>
   <conditionalFormatting sqref="G8:G9">
     <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0"/>
